--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>Digvijay Wadekar and Arush Pimpalkar and Mark Ho-Yeuk Cheung and Benjamin Wandelt and Emanuele Berti and Ajit Kumar Mehta and Tejaswi Venumadhav and Javier Roulet and Tousif Islam and Barak Zackay and Jonathan Mushkin and Matias Zaldarriaga</t>
+    <t>Digvijay Wadekar, Arush Pimpalka, Mark Ho-Yeuk Cheung, Benjamin Wandel, Emanuele Berti, Ajit Kumar Mehta, Tejaswi Venumadhav, Javier Roulet, Tousif Islam, Barak Zackay, Jonathan Mushkin and Matias Zaldarriaga</t>
   </si>
   <si>
     <t>assets/images/publications/TIER.png</t>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -62,7 +62,7 @@
     <t>Digvijay Wadekar, Arush Pimpalka, Mark Ho-Yeuk Cheung, Benjamin Wandel, Emanuele Berti, Ajit Kumar Mehta, Tejaswi Venumadhav, Javier Roulet, Tousif Islam, Barak Zackay, Jonathan Mushkin and Matias Zaldarriaga</t>
   </si>
   <si>
-    <t>assets/images/publications/TIER.png</t>
+    <t>/assets/images/publications/TIER.png</t>
   </si>
   <si>
     <t>https://inspirehep.net/literature/2945005</t>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -59,13 +59,13 @@
     <t/>
   </si>
   <si>
-    <t>Digvijay Wadekar, Arush Pimpalka, Mark Ho-Yeuk Cheung, Benjamin Wandel, Emanuele Berti, Ajit Kumar Mehta, Tejaswi Venumadhav, Javier Roulet, Tousif Islam, Barak Zackay, Jonathan Mushkin and Matias Zaldarriaga</t>
+    <t>Digvijay Wadekar, Arush Pimpalkar, Mark Ho-Yeuk Cheung, Benjamin Wandel, Emanuele Berti, Ajit Kumar Mehta, Tejaswi Venumadhav, Javier Roulet, Tousif Islam, Barak Zackay, Jonathan Mushkin and Matias Zaldarriaga</t>
   </si>
   <si>
     <t>/assets/images/publications/TIER.png</t>
   </si>
   <si>
-    <t>https://inspirehep.net/literature/2945005</t>
+    <t>Paper|https://inspirehep.net/literature/2945008</t>
   </si>
   <si>
     <t>We introduce TIER, a machine learning framework that uses extra strain data around candidate signals to make gravitational-wave searches more sensitive—boosting performance by up to 20% and helping reveal fainter, high-mass, and unequal-mass events that might otherwise go unnoticed.</t>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>title</t>
   </si>
@@ -71,7 +71,16 @@
     <t>We introduce TIER, a machine learning framework that uses extra strain data around candidate signals to make gravitational-wave searches more sensitive—boosting performance by up to 20% and helping reveal fainter, high-mass, and unequal-mass events that might otherwise go unnoticed.</t>
   </si>
   <si>
-    <t>AI</t>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Gravitational Wave Transient Searches Using Machine Learning</t>
+  </si>
+  <si>
+    <t>Arush Pimpalkar, Bhooshan Gadre</t>
+  </si>
+  <si>
+    <t>Developed deep learning models for gravitational wave detection and parameter estimation, replacing traditional matched filtering for improved efficiency. Achieved 97.25% accuracy in waveform classification and low MSEs in predicting chirp mass, SNR, and time of peak waveform.</t>
   </si>
 </sst>
 </file>
@@ -146,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -166,23 +175,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,18 +497,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="62.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="55.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="59.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="57.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="80.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="104.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="62.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="55.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="59.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="57.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="80.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="104.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="47.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
@@ -546,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="102.75" customFormat="1" s="1">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -556,18 +559,14 @@
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="6">
         <v>2025</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
@@ -577,306 +576,146 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="42" customFormat="1" s="1">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="248.25" customFormat="1" s="1">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="167.25" customFormat="1" s="1">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="151.5" customFormat="1" s="1">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="38.25" customFormat="1" s="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="87" customFormat="1" s="1">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="119.25" customFormat="1" s="1">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="167.25" customFormat="1" s="1">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39" customFormat="1" s="1">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Arush Pimpalkar, Bhooshan Gadre</t>
+  </si>
+  <si>
+    <t>/assets/images/publications/still_thinking.png</t>
   </si>
   <si>
     <t>Developed deep learning models for gravitational wave detection and parameter estimation, replacing traditional matched filtering for improved efficiency. Achieved 97.25% accuracy in waveform classification and low MSEs in predicting chirp mass, SNR, and time of peak waveform.</t>
@@ -593,11 +596,13 @@
       <c r="E3" s="6">
         <v>2024</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>18</v>
